--- a/ERP/SC_CONF_r4/config.xlsx
+++ b/ERP/SC_CONF_r4/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d.markov\Documents\PYTHON\Python_OOP\ERP\SC_CONF_r4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAFB1AAF-AD5B-4F5D-ABE0-D5C69AEF09BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B1FCA5-0CA8-40A3-9DBB-D006031A07BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1919,7 +1919,7 @@
   <dimension ref="A2:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/ERP/SC_CONF_r4/config.xlsx
+++ b/ERP/SC_CONF_r4/config.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d.markov\Documents\PYTHON\Python_OOP\ERP\SC_CONF_r4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B1FCA5-0CA8-40A3-9DBB-D006031A07BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE7DFE26-1DA5-48D4-8970-6EAC7379C453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Structure" sheetId="1" r:id="rId1"/>
+    <sheet name="Templates" sheetId="1" r:id="rId1"/>
     <sheet name="Клапан тип 3241" sheetId="2" r:id="rId2"/>
   </sheets>
   <externalReferences>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="155">
   <si>
     <t>Клапан тип 3241</t>
   </si>
@@ -527,6 +527,9 @@
     <t>1.0619; A216 WCC; 
 1.5638; A352 LC3; 
 1.4408; A351 CF8M</t>
+  </si>
+  <si>
+    <t>Параметры</t>
   </si>
 </sst>
 </file>
@@ -1184,6 +1187,168 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4DFEC93-F302-7488-A396-03211053682A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="933450" y="2019300"/>
+          <a:ext cx="6400800" cy="1651000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>Создание</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+            <a:t> шаблонов </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>BOM.</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>Название</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+            <a:t> листа </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Templates </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+            <a:t>не менять.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+            <a:t>Уровень иерархии</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+            <a:t>компонентов в структуре </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>BOM</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+            <a:t> определяется количеством символов </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t># </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+            <a:t>в столбце </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>"A".</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="ru-RU" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+            <a:t>Остальные листы должны называться в соответствии с наименованием данного типа ТПА </a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+            <a:t>(первый уровень иерархии). </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+            <a:t>Детали на этих листах (столбец "А") должны соответствовать наименованиям остальных компонентов клапана.</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1918,8 +2083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1936,6 +2101,9 @@
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
@@ -1984,6 +2152,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1991,8 +2160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC40E959-3D68-475C-AEBA-1F4CA666E224}">
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="36.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/ERP/SC_CONF_r4/config.xlsx
+++ b/ERP/SC_CONF_r4/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d.markov\Documents\PYTHON\Python_OOP\ERP\SC_CONF_r4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE7DFE26-1DA5-48D4-8970-6EAC7379C453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E8AF8E-C6A1-41FA-B6BA-8B4B8F620D7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="154">
   <si>
     <t>Клапан тип 3241</t>
   </si>
@@ -292,10 +292,6 @@
     <t>1.4401/1.4404/A182 F316/A182 F316L</t>
   </si>
   <si>
-    <t>20ГЛ
-12Х18Н9ТЛ</t>
-  </si>
-  <si>
     <t>0110-2532</t>
   </si>
   <si>
@@ -515,33 +511,36 @@
     <t>1.0619; A216 WCC; 1.5638; A352 LC3</t>
   </si>
   <si>
-    <t>1.0619; A216 WCC
-1.5638; A352 LC3</t>
-  </si>
-  <si>
-    <t>1.0619; A216 WCC
-1.5638; A352 LC3
-1.4408; A351 CF8M</t>
-  </si>
-  <si>
-    <t>1.0619; A216 WCC; 
-1.5638; A352 LC3; 
-1.4408; A351 CF8M</t>
-  </si>
-  <si>
     <t>Параметры</t>
+  </si>
+  <si>
+    <t>1.0619; A216 WCC; 1.5638; A352 LC3; 1.4408; A351 CF8M</t>
+  </si>
+  <si>
+    <t>20ГЛ; 12Х18Н9ТЛ</t>
+  </si>
+  <si>
+    <t>25; 40</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -885,247 +884,248 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="9" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="9" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="11" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="11" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="14" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="14" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="15" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="15" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="16" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="16" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2102,7 +2102,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -2160,26 +2160,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC40E959-3D68-475C-AEBA-1F4CA666E224}">
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="36.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="58" style="60" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="61.08984375" style="60" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="49.453125" style="61" customWidth="1"/>
-    <col min="8" max="8" width="27.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.7265625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="8.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="59.6328125" style="60" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="69.08984375" style="60" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="52.1796875" style="61" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="52.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="38.26953125" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="36.1796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="44" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A1" s="74" t="s">
         <v>11</v>
       </c>
@@ -2196,7 +2196,7 @@
         <v>13</v>
       </c>
       <c r="F1" s="82" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G1" s="83" t="s">
         <v>16</v>
@@ -2222,7 +2222,7 @@
         <v>21</v>
       </c>
       <c r="D2" s="72" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E2" s="4" t="str">
         <f t="shared" ref="E2:E53" si="0">I2&amp;IF(ISTEXT(J2), "; "&amp;J2,)</f>
@@ -2236,7 +2236,7 @@
         <v>23</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J2" s="86"/>
     </row>
@@ -2251,7 +2251,7 @@
         <v>25</v>
       </c>
       <c r="D3" s="72" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E3" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2265,7 +2265,7 @@
         <v>23</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J3" s="86"/>
     </row>
@@ -2280,7 +2280,7 @@
         <v>28</v>
       </c>
       <c r="D4" s="72" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E4" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2294,7 +2294,7 @@
         <v>30</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J4" s="86"/>
     </row>
@@ -2309,7 +2309,7 @@
         <v>32</v>
       </c>
       <c r="D5" s="72" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E5" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="H5" s="87"/>
       <c r="I5" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J5" s="86"/>
     </row>
@@ -2336,7 +2336,7 @@
         <v>34</v>
       </c>
       <c r="D6" s="72" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E6" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2348,7 +2348,7 @@
       </c>
       <c r="H6" s="87"/>
       <c r="I6" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J6" s="86"/>
     </row>
@@ -2363,7 +2363,7 @@
         <v>36</v>
       </c>
       <c r="D7" s="72" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E7" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2375,7 +2375,7 @@
       </c>
       <c r="H7" s="87"/>
       <c r="I7" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J7" s="86"/>
     </row>
@@ -2390,7 +2390,7 @@
         <v>38</v>
       </c>
       <c r="D8" s="72" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E8" s="4" t="str">
         <f>I8&amp;IF(ISTEXT(J8), "; "&amp;J8,)</f>
@@ -2402,7 +2402,7 @@
       </c>
       <c r="H8" s="87"/>
       <c r="I8" s="88" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J8" s="28" t="s">
         <v>23</v>
@@ -2419,7 +2419,7 @@
         <v>40</v>
       </c>
       <c r="D9" s="72" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E9" s="4" t="str">
         <f t="shared" ref="E9:E11" si="1">I9&amp;IF(ISTEXT(J9), "; "&amp;J9,)</f>
@@ -2431,7 +2431,7 @@
       </c>
       <c r="H9" s="87"/>
       <c r="I9" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J9" s="28" t="s">
         <v>30</v>
@@ -2448,7 +2448,7 @@
         <v>42</v>
       </c>
       <c r="D10" s="72" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E10" s="4" t="str">
         <f t="shared" si="1"/>
@@ -2460,7 +2460,7 @@
       </c>
       <c r="H10" s="87"/>
       <c r="I10" s="88" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J10" s="28" t="s">
         <v>23</v>
@@ -2477,7 +2477,7 @@
         <v>44</v>
       </c>
       <c r="D11" s="73" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E11" s="11" t="str">
         <f t="shared" si="1"/>
@@ -2489,7 +2489,7 @@
       </c>
       <c r="H11" s="87"/>
       <c r="I11" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J11" s="54" t="s">
         <v>30</v>
@@ -2506,7 +2506,7 @@
         <v>46</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E12" s="16" t="str">
         <f t="shared" si="0"/>
@@ -2520,7 +2520,7 @@
         <v>48</v>
       </c>
       <c r="I12" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J12" s="21" t="s">
         <v>23</v>
@@ -2537,7 +2537,7 @@
         <v>50</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E13" s="24" t="str">
         <f t="shared" si="0"/>
@@ -2551,13 +2551,13 @@
         <v>48</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J13" s="28" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="64" t="s">
         <v>5</v>
       </c>
@@ -2568,7 +2568,7 @@
         <v>53</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E14" s="24" t="str">
         <f t="shared" si="0"/>
@@ -2582,13 +2582,13 @@
         <v>55</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J14" s="28" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="64" t="s">
         <v>5</v>
       </c>
@@ -2599,12 +2599,11 @@
         <v>57</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E15" s="24" t="str">
         <f t="shared" si="0"/>
-        <v>1.0619; A216 WCC
-1.5638; A352 LC3; 20ГЛ</v>
+        <v>1.0619; A216 WCC; 1.5638; A352 LC3; 20ГЛ</v>
       </c>
       <c r="F15" s="23"/>
       <c r="G15" s="26" t="s">
@@ -2612,7 +2611,7 @@
       </c>
       <c r="H15" s="89"/>
       <c r="I15" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J15" s="28" t="s">
         <v>23</v>
@@ -2629,7 +2628,7 @@
         <v>59</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E16" s="31" t="str">
         <f t="shared" si="0"/>
@@ -2641,7 +2640,7 @@
       </c>
       <c r="H16" s="34"/>
       <c r="I16" s="35" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J16" s="36" t="s">
         <v>30</v>
@@ -2658,7 +2657,7 @@
         <v>61</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E17" s="16" t="str">
         <f t="shared" si="0"/>
@@ -2670,7 +2669,7 @@
       </c>
       <c r="H17" s="37"/>
       <c r="I17" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J17" s="21" t="s">
         <v>23</v>
@@ -2687,7 +2686,7 @@
         <v>63</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E18" s="24" t="str">
         <f t="shared" si="0"/>
@@ -2699,13 +2698,13 @@
       </c>
       <c r="H18" s="89"/>
       <c r="I18" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J18" s="28" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="64" t="s">
         <v>5</v>
       </c>
@@ -2716,7 +2715,7 @@
         <v>65</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E19" s="24" t="str">
         <f t="shared" si="0"/>
@@ -2728,13 +2727,13 @@
       </c>
       <c r="H19" s="89"/>
       <c r="I19" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J19" s="28" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="64" t="s">
         <v>5</v>
       </c>
@@ -2745,12 +2744,11 @@
         <v>67</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E20" s="24" t="str">
         <f t="shared" si="0"/>
-        <v>1.0619; A216 WCC
-1.5638; A352 LC3; 20ГЛ</v>
+        <v>1.0619; A216 WCC; 1.5638; A352 LC3; 20ГЛ</v>
       </c>
       <c r="F20" s="23"/>
       <c r="G20" s="26" t="s">
@@ -2758,7 +2756,7 @@
       </c>
       <c r="H20" s="89"/>
       <c r="I20" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J20" s="28" t="s">
         <v>23</v>
@@ -2775,7 +2773,7 @@
         <v>69</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E21" s="31" t="str">
         <f t="shared" si="0"/>
@@ -2787,13 +2785,13 @@
       </c>
       <c r="H21" s="34"/>
       <c r="I21" s="35" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J21" s="36" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="29.5" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A22" s="62" t="s">
         <v>4</v>
       </c>
@@ -2804,15 +2802,14 @@
         <v>71</v>
       </c>
       <c r="D22" s="38" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E22" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>1.0619; A216 WCC
-1.5638; A352 LC3; 20ГЛ</v>
-      </c>
-      <c r="F22" s="39">
-        <v>25</v>
+        <v>1.0619; A216 WCC; 1.5638; A352 LC3; 20ГЛ</v>
+      </c>
+      <c r="F22" s="90" t="s">
+        <v>153</v>
       </c>
       <c r="G22" s="42" t="s">
         <v>72</v>
@@ -2821,13 +2818,13 @@
         <v>73</v>
       </c>
       <c r="I22" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J22" s="21" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="64" t="s">
         <v>4</v>
       </c>
@@ -2838,14 +2835,11 @@
         <v>75</v>
       </c>
       <c r="D23" s="44" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E23" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>1.0619; A216 WCC
-1.5638; A352 LC3
-1.4408; A351 CF8M; 20ГЛ
-12Х18Н9ТЛ</v>
+        <v>1.0619; A216 WCC; 1.5638; A352 LC3; 1.4408; A351 CF8M; 20ГЛ; 12Х18Н9ТЛ</v>
       </c>
       <c r="F23" s="45">
         <v>25</v>
@@ -2857,99 +2851,94 @@
         <v>55</v>
       </c>
       <c r="I23" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="J23" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="J23" s="28" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="64" t="s">
         <v>4</v>
       </c>
       <c r="B24" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="65" t="s">
         <v>78</v>
       </c>
-      <c r="C24" s="65" t="s">
-        <v>79</v>
-      </c>
       <c r="D24" s="44" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E24" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>1.0619; A216 WCC
-1.5638; A352 LC3; 20ГЛ</v>
+        <v>1.0619; A216 WCC; 1.5638; A352 LC3; 20ГЛ</v>
       </c>
       <c r="F24" s="45">
         <v>25</v>
       </c>
       <c r="G24" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="H24" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="H24" s="48" t="s">
-        <v>81</v>
-      </c>
       <c r="I24" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J24" s="28" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="64" t="s">
         <v>4</v>
       </c>
       <c r="B25" s="46" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="C25" s="65" t="s">
-        <v>83</v>
-      </c>
       <c r="D25" s="44" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E25" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>1.0619; A216 WCC
-1.5638; A352 LC3
-1.4408; A351 CF8M; 20ГЛ
-12Х18Н9ТЛ</v>
+        <v>1.0619; A216 WCC; 1.5638; A352 LC3; 1.4408; A351 CF8M; 20ГЛ; 12Х18Н9ТЛ</v>
       </c>
       <c r="F25" s="45">
         <v>25</v>
       </c>
       <c r="G25" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="H25" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="H25" s="48" t="s">
-        <v>85</v>
-      </c>
       <c r="I25" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="J25" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="J25" s="28" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="64" t="s">
         <v>4</v>
       </c>
       <c r="B26" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="C26" s="65" t="s">
-        <v>87</v>
-      </c>
       <c r="D26" s="44" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E26" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>1.0619; A216 WCC
-1.5638; A352 LC3; 20ГЛ</v>
+        <v>1.0619; A216 WCC; 1.5638; A352 LC3; 20ГЛ</v>
       </c>
       <c r="F26" s="45">
         <v>25</v>
@@ -2959,31 +2948,28 @@
       </c>
       <c r="H26" s="89"/>
       <c r="I26" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J26" s="28" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="64" t="s">
         <v>4</v>
       </c>
       <c r="B27" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" s="65" t="s">
         <v>88</v>
       </c>
-      <c r="C27" s="65" t="s">
-        <v>89</v>
-      </c>
       <c r="D27" s="44" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E27" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>1.0619; A216 WCC
-1.5638; A352 LC3
-1.4408; A351 CF8M; 20ГЛ
-12Х18Н9ТЛ</v>
+        <v>1.0619; A216 WCC; 1.5638; A352 LC3; 1.4408; A351 CF8M; 20ГЛ; 12Х18Н9ТЛ</v>
       </c>
       <c r="F27" s="45">
         <v>25</v>
@@ -2993,95 +2979,90 @@
       </c>
       <c r="H27" s="89"/>
       <c r="I27" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="J27" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="J27" s="28" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="64" t="s">
         <v>4</v>
       </c>
       <c r="B28" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" s="65" t="s">
         <v>90</v>
       </c>
-      <c r="C28" s="65" t="s">
-        <v>91</v>
-      </c>
       <c r="D28" s="44" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E28" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>1.0619; A216 WCC
-1.5638; A352 LC3; 20ГЛ</v>
+        <v>1.0619; A216 WCC; 1.5638; A352 LC3; 20ГЛ</v>
       </c>
       <c r="F28" s="45">
         <v>25</v>
       </c>
       <c r="G28" s="47" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H28" s="89"/>
       <c r="I28" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J28" s="28" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="64" t="s">
         <v>4</v>
       </c>
       <c r="B29" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="C29" s="66" t="s">
-        <v>93</v>
-      </c>
       <c r="D29" s="49" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E29" s="51" t="str">
         <f t="shared" si="0"/>
-        <v>1.0619; A216 WCC
-1.5638; A352 LC3
-1.4408; A351 CF8M; 20ГЛ
-12Х18Н9ТЛ</v>
+        <v>1.0619; A216 WCC; 1.5638; A352 LC3; 1.4408; A351 CF8M; 20ГЛ; 12Х18Н9ТЛ</v>
       </c>
       <c r="F29" s="50">
         <v>25</v>
       </c>
       <c r="G29" s="53" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H29" s="89"/>
       <c r="I29" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="J29" s="54" t="s">
         <v>152</v>
       </c>
-      <c r="J29" s="54" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="29.5" thickTop="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A30" s="64" t="s">
         <v>4</v>
       </c>
       <c r="B30" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="C30" s="63" t="s">
-        <v>95</v>
-      </c>
       <c r="D30" s="38" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E30" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>1.0619; A216 WCC
-1.5638; A352 LC3; 20ГЛ</v>
+        <v>1.0619; A216 WCC; 1.5638; A352 LC3; 20ГЛ</v>
       </c>
       <c r="F30" s="39">
         <v>40</v>
@@ -3091,31 +3072,28 @@
       </c>
       <c r="H30" s="37"/>
       <c r="I30" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J30" s="21" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="64" t="s">
         <v>4</v>
       </c>
       <c r="B31" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="C31" s="65" t="s">
         <v>96</v>
       </c>
-      <c r="C31" s="65" t="s">
-        <v>97</v>
-      </c>
       <c r="D31" s="44" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E31" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>1.0619; A216 WCC
-1.5638; A352 LC3
-1.4408; A351 CF8M; 20ГЛ
-12Х18Н9ТЛ</v>
+        <v>1.0619; A216 WCC; 1.5638; A352 LC3; 1.4408; A351 CF8M; 20ГЛ; 12Х18Н9ТЛ</v>
       </c>
       <c r="F31" s="45">
         <v>40</v>
@@ -3125,95 +3103,90 @@
       </c>
       <c r="H31" s="89"/>
       <c r="I31" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="J31" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="J31" s="28" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="64" t="s">
         <v>4</v>
       </c>
       <c r="B32" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32" s="65" t="s">
         <v>98</v>
       </c>
-      <c r="C32" s="65" t="s">
-        <v>99</v>
-      </c>
       <c r="D32" s="44" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E32" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>1.0619; A216 WCC
-1.5638; A352 LC3; 20ГЛ</v>
+        <v>1.0619; A216 WCC; 1.5638; A352 LC3; 20ГЛ</v>
       </c>
       <c r="F32" s="45">
         <v>40</v>
       </c>
       <c r="G32" s="47" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H32" s="89"/>
       <c r="I32" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J32" s="28" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="64" t="s">
         <v>4</v>
       </c>
       <c r="B33" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="C33" s="65" t="s">
         <v>100</v>
       </c>
-      <c r="C33" s="65" t="s">
-        <v>101</v>
-      </c>
       <c r="D33" s="44" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E33" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>1.0619; A216 WCC
-1.5638; A352 LC3
-1.4408; A351 CF8M; 20ГЛ
-12Х18Н9ТЛ</v>
+        <v>1.0619; A216 WCC; 1.5638; A352 LC3; 1.4408; A351 CF8M; 20ГЛ; 12Х18Н9ТЛ</v>
       </c>
       <c r="F33" s="45">
         <v>40</v>
       </c>
       <c r="G33" s="47" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H33" s="89"/>
       <c r="I33" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="J33" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="J33" s="28" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="64" t="s">
         <v>4</v>
       </c>
       <c r="B34" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="C34" s="65" t="s">
         <v>102</v>
       </c>
-      <c r="C34" s="65" t="s">
-        <v>103</v>
-      </c>
       <c r="D34" s="44" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E34" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>1.0619; A216 WCC
-1.5638; A352 LC3; 20ГЛ</v>
+        <v>1.0619; A216 WCC; 1.5638; A352 LC3; 20ГЛ</v>
       </c>
       <c r="F34" s="45">
         <v>40</v>
@@ -3223,31 +3196,28 @@
       </c>
       <c r="H34" s="89"/>
       <c r="I34" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J34" s="28" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="64" t="s">
         <v>4</v>
       </c>
       <c r="B35" s="46" t="s">
+        <v>103</v>
+      </c>
+      <c r="C35" s="65" t="s">
         <v>104</v>
       </c>
-      <c r="C35" s="65" t="s">
-        <v>105</v>
-      </c>
       <c r="D35" s="44" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E35" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>1.0619; A216 WCC
-1.5638; A352 LC3
-1.4408; A351 CF8M; 20ГЛ
-12Х18Н9ТЛ</v>
+        <v>1.0619; A216 WCC; 1.5638; A352 LC3; 1.4408; A351 CF8M; 20ГЛ; 12Х18Н9ТЛ</v>
       </c>
       <c r="F35" s="45">
         <v>40</v>
@@ -3257,95 +3227,90 @@
       </c>
       <c r="H35" s="89"/>
       <c r="I35" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="J35" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="J35" s="28" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="64" t="s">
         <v>4</v>
       </c>
       <c r="B36" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="C36" s="65" t="s">
         <v>106</v>
       </c>
-      <c r="C36" s="65" t="s">
-        <v>107</v>
-      </c>
       <c r="D36" s="44" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E36" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>1.0619; A216 WCC
-1.5638; A352 LC3; 20ГЛ</v>
+        <v>1.0619; A216 WCC; 1.5638; A352 LC3; 20ГЛ</v>
       </c>
       <c r="F36" s="45">
         <v>40</v>
       </c>
       <c r="G36" s="47" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H36" s="89"/>
       <c r="I36" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J36" s="28" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="64" t="s">
         <v>4</v>
       </c>
       <c r="B37" s="58" t="s">
+        <v>107</v>
+      </c>
+      <c r="C37" s="67" t="s">
         <v>108</v>
       </c>
-      <c r="C37" s="67" t="s">
-        <v>109</v>
-      </c>
       <c r="D37" s="55" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E37" s="57" t="str">
         <f t="shared" si="0"/>
-        <v>1.0619; A216 WCC
-1.5638; A352 LC3
-1.4408; A351 CF8M; 20ГЛ
-12Х18Н9ТЛ</v>
+        <v>1.0619; A216 WCC; 1.5638; A352 LC3; 1.4408; A351 CF8M; 20ГЛ; 12Х18Н9ТЛ</v>
       </c>
       <c r="F37" s="56">
         <v>40</v>
       </c>
       <c r="G37" s="59" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H37" s="34"/>
       <c r="I37" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="J37" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="J37" s="36" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="29.5" thickTop="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="38" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A38" s="64" t="s">
         <v>4</v>
       </c>
       <c r="B38" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="C38" s="63" t="s">
         <v>110</v>
       </c>
-      <c r="C38" s="63" t="s">
-        <v>111</v>
-      </c>
       <c r="D38" s="38" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E38" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>1.0619; A216 WCC
-1.5638; A352 LC3; 20ГЛ</v>
+        <v>1.0619; A216 WCC; 1.5638; A352 LC3; 20ГЛ</v>
       </c>
       <c r="F38" s="39">
         <v>60</v>
@@ -3355,31 +3320,28 @@
       </c>
       <c r="H38" s="37"/>
       <c r="I38" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J38" s="21" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="64" t="s">
         <v>4</v>
       </c>
       <c r="B39" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="C39" s="65" t="s">
         <v>112</v>
       </c>
-      <c r="C39" s="65" t="s">
-        <v>113</v>
-      </c>
       <c r="D39" s="44" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E39" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>1.0619; A216 WCC
-1.5638; A352 LC3
-1.4408; A351 CF8M; 20ГЛ
-12Х18Н9ТЛ</v>
+        <v>1.0619; A216 WCC; 1.5638; A352 LC3; 1.4408; A351 CF8M; 20ГЛ; 12Х18Н9ТЛ</v>
       </c>
       <c r="F39" s="45">
         <v>60</v>
@@ -3389,95 +3351,90 @@
       </c>
       <c r="H39" s="89"/>
       <c r="I39" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="J39" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="J39" s="28" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="64" t="s">
         <v>4</v>
       </c>
       <c r="B40" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="C40" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="C40" s="65" t="s">
-        <v>115</v>
-      </c>
       <c r="D40" s="44" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E40" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>1.0619; A216 WCC
-1.5638; A352 LC3; 20ГЛ</v>
+        <v>1.0619; A216 WCC; 1.5638; A352 LC3; 20ГЛ</v>
       </c>
       <c r="F40" s="45">
         <v>60</v>
       </c>
       <c r="G40" s="47" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H40" s="89"/>
       <c r="I40" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J40" s="28" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="64" t="s">
         <v>4</v>
       </c>
       <c r="B41" s="46" t="s">
+        <v>115</v>
+      </c>
+      <c r="C41" s="65" t="s">
         <v>116</v>
       </c>
-      <c r="C41" s="65" t="s">
-        <v>117</v>
-      </c>
       <c r="D41" s="44" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E41" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>1.0619; A216 WCC
-1.5638; A352 LC3
-1.4408; A351 CF8M; 20ГЛ
-12Х18Н9ТЛ</v>
+        <v>1.0619; A216 WCC; 1.5638; A352 LC3; 1.4408; A351 CF8M; 20ГЛ; 12Х18Н9ТЛ</v>
       </c>
       <c r="F41" s="45">
         <v>60</v>
       </c>
       <c r="G41" s="47" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H41" s="89"/>
       <c r="I41" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="J41" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="J41" s="28" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="64" t="s">
         <v>4</v>
       </c>
       <c r="B42" s="46" t="s">
+        <v>117</v>
+      </c>
+      <c r="C42" s="65" t="s">
         <v>118</v>
       </c>
-      <c r="C42" s="65" t="s">
-        <v>119</v>
-      </c>
       <c r="D42" s="44" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E42" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>1.0619; A216 WCC
-1.5638; A352 LC3; 20ГЛ</v>
+        <v>1.0619; A216 WCC; 1.5638; A352 LC3; 20ГЛ</v>
       </c>
       <c r="F42" s="45">
         <v>60</v>
@@ -3487,31 +3444,28 @@
       </c>
       <c r="H42" s="89"/>
       <c r="I42" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J42" s="28" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="64" t="s">
         <v>4</v>
       </c>
       <c r="B43" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="C43" s="65" t="s">
         <v>120</v>
       </c>
-      <c r="C43" s="65" t="s">
-        <v>121</v>
-      </c>
       <c r="D43" s="44" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E43" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>1.0619; A216 WCC
-1.5638; A352 LC3
-1.4408; A351 CF8M; 20ГЛ
-12Х18Н9ТЛ</v>
+        <v>1.0619; A216 WCC; 1.5638; A352 LC3; 1.4408; A351 CF8M; 20ГЛ; 12Х18Н9ТЛ</v>
       </c>
       <c r="F43" s="45">
         <v>60</v>
@@ -3521,95 +3475,90 @@
       </c>
       <c r="H43" s="89"/>
       <c r="I43" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="J43" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="J43" s="28" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="64" t="s">
         <v>4</v>
       </c>
       <c r="B44" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="C44" s="65" t="s">
         <v>122</v>
       </c>
-      <c r="C44" s="65" t="s">
-        <v>123</v>
-      </c>
       <c r="D44" s="44" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E44" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>1.0619; A216 WCC
-1.5638; A352 LC3; 20ГЛ</v>
+        <v>1.0619; A216 WCC; 1.5638; A352 LC3; 20ГЛ</v>
       </c>
       <c r="F44" s="45">
         <v>60</v>
       </c>
       <c r="G44" s="47" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H44" s="89"/>
       <c r="I44" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J44" s="28" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="64" t="s">
         <v>4</v>
       </c>
       <c r="B45" s="58" t="s">
+        <v>123</v>
+      </c>
+      <c r="C45" s="67" t="s">
         <v>124</v>
       </c>
-      <c r="C45" s="67" t="s">
-        <v>125</v>
-      </c>
       <c r="D45" s="55" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E45" s="57" t="str">
         <f t="shared" si="0"/>
-        <v>1.0619; A216 WCC
-1.5638; A352 LC3
-1.4408; A351 CF8M; 20ГЛ
-12Х18Н9ТЛ</v>
+        <v>1.0619; A216 WCC; 1.5638; A352 LC3; 1.4408; A351 CF8M; 20ГЛ; 12Х18Н9ТЛ</v>
       </c>
       <c r="F45" s="56">
         <v>60</v>
       </c>
       <c r="G45" s="59" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H45" s="34"/>
       <c r="I45" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="J45" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="J45" s="36" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="29.5" thickTop="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="46" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A46" s="64" t="s">
         <v>4</v>
       </c>
       <c r="B46" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="C46" s="63" t="s">
         <v>126</v>
       </c>
-      <c r="C46" s="63" t="s">
-        <v>127</v>
-      </c>
       <c r="D46" s="38" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E46" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>1.0619; A216 WCC
-1.5638; A352 LC3; 20ГЛ</v>
+        <v>1.0619; A216 WCC; 1.5638; A352 LC3; 20ГЛ</v>
       </c>
       <c r="F46" s="39">
         <v>80</v>
@@ -3619,31 +3568,28 @@
       </c>
       <c r="H46" s="37"/>
       <c r="I46" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J46" s="21" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" s="64" t="s">
         <v>4</v>
       </c>
       <c r="B47" s="46" t="s">
+        <v>127</v>
+      </c>
+      <c r="C47" s="65" t="s">
         <v>128</v>
       </c>
-      <c r="C47" s="65" t="s">
-        <v>129</v>
-      </c>
       <c r="D47" s="44" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E47" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>1.0619; A216 WCC
-1.5638; A352 LC3
-1.4408; A351 CF8M; 20ГЛ
-12Х18Н9ТЛ</v>
+        <v>1.0619; A216 WCC; 1.5638; A352 LC3; 1.4408; A351 CF8M; 20ГЛ; 12Х18Н9ТЛ</v>
       </c>
       <c r="F47" s="45">
         <v>80</v>
@@ -3653,95 +3599,90 @@
       </c>
       <c r="H47" s="89"/>
       <c r="I47" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="J47" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="J47" s="28" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" s="64" t="s">
         <v>4</v>
       </c>
       <c r="B48" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="C48" s="65" t="s">
         <v>130</v>
       </c>
-      <c r="C48" s="65" t="s">
-        <v>131</v>
-      </c>
       <c r="D48" s="44" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E48" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>1.0619; A216 WCC
-1.5638; A352 LC3; 20ГЛ</v>
+        <v>1.0619; A216 WCC; 1.5638; A352 LC3; 20ГЛ</v>
       </c>
       <c r="F48" s="45">
         <v>80</v>
       </c>
       <c r="G48" s="47" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H48" s="89"/>
       <c r="I48" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J48" s="28" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" s="64" t="s">
         <v>4</v>
       </c>
       <c r="B49" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="C49" s="65" t="s">
         <v>132</v>
       </c>
-      <c r="C49" s="65" t="s">
-        <v>133</v>
-      </c>
       <c r="D49" s="44" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E49" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>1.0619; A216 WCC
-1.5638; A352 LC3
-1.4408; A351 CF8M; 20ГЛ
-12Х18Н9ТЛ</v>
+        <v>1.0619; A216 WCC; 1.5638; A352 LC3; 1.4408; A351 CF8M; 20ГЛ; 12Х18Н9ТЛ</v>
       </c>
       <c r="F49" s="45">
         <v>80</v>
       </c>
       <c r="G49" s="47" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H49" s="89"/>
       <c r="I49" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="J49" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="J49" s="28" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" s="64" t="s">
         <v>4</v>
       </c>
       <c r="B50" s="46" t="s">
+        <v>133</v>
+      </c>
+      <c r="C50" s="65" t="s">
         <v>134</v>
       </c>
-      <c r="C50" s="65" t="s">
-        <v>135</v>
-      </c>
       <c r="D50" s="44" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E50" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>1.0619; A216 WCC
-1.5638; A352 LC3; 20ГЛ</v>
+        <v>1.0619; A216 WCC; 1.5638; A352 LC3; 20ГЛ</v>
       </c>
       <c r="F50" s="45">
         <v>80</v>
@@ -3751,31 +3692,28 @@
       </c>
       <c r="H50" s="89"/>
       <c r="I50" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J50" s="28" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" s="64" t="s">
         <v>4</v>
       </c>
       <c r="B51" s="46" t="s">
+        <v>135</v>
+      </c>
+      <c r="C51" s="65" t="s">
         <v>136</v>
       </c>
-      <c r="C51" s="65" t="s">
-        <v>137</v>
-      </c>
       <c r="D51" s="44" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E51" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>1.0619; A216 WCC
-1.5638; A352 LC3
-1.4408; A351 CF8M; 20ГЛ
-12Х18Н9ТЛ</v>
+        <v>1.0619; A216 WCC; 1.5638; A352 LC3; 1.4408; A351 CF8M; 20ГЛ; 12Х18Н9ТЛ</v>
       </c>
       <c r="F51" s="45">
         <v>80</v>
@@ -3785,76 +3723,72 @@
       </c>
       <c r="H51" s="89"/>
       <c r="I51" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="J51" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="J51" s="28" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" s="64" t="s">
         <v>4</v>
       </c>
       <c r="B52" s="46" t="s">
+        <v>137</v>
+      </c>
+      <c r="C52" s="65" t="s">
         <v>138</v>
       </c>
-      <c r="C52" s="65" t="s">
-        <v>139</v>
-      </c>
       <c r="D52" s="44" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E52" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>1.0619; A216 WCC
-1.5638; A352 LC3; 20ГЛ</v>
+        <v>1.0619; A216 WCC; 1.5638; A352 LC3; 20ГЛ</v>
       </c>
       <c r="F52" s="45">
         <v>80</v>
       </c>
       <c r="G52" s="47" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H52" s="89"/>
       <c r="I52" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J52" s="28" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="68" t="s">
         <v>4</v>
       </c>
       <c r="B53" s="58" t="s">
+        <v>139</v>
+      </c>
+      <c r="C53" s="67" t="s">
         <v>140</v>
       </c>
-      <c r="C53" s="67" t="s">
-        <v>141</v>
-      </c>
       <c r="D53" s="55" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E53" s="57" t="str">
         <f t="shared" si="0"/>
-        <v>1.0619; A216 WCC; 
-1.5638; A352 LC3; 
-1.4408; A351 CF8M; 20ГЛ
-12Х18Н9ТЛ</v>
+        <v>1.0619; A216 WCC; 1.5638; A352 LC3; 1.4408; A351 CF8M; 20ГЛ; 12Х18Н9ТЛ</v>
       </c>
       <c r="F53" s="56">
         <v>80</v>
       </c>
       <c r="G53" s="59" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H53" s="34"/>
       <c r="I53" s="35" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J53" s="36" t="s">
-        <v>77</v>
+        <v>152</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
